--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="19" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -599,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,9 +772,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,13 +790,28 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,28 +844,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1162,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1195,43 +1192,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1276,58 +1273,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1352,23 +1349,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1392,7 +1389,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>80</v>
       </c>
       <c r="J6" s="45" t="s">
@@ -1420,7 +1417,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1449,13 +1446,13 @@
         <v>64</v>
       </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="59" t="s">
         <v>78</v>
       </c>
       <c r="J7" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="59" t="s">
         <v>70</v>
       </c>
       <c r="L7" s="45"/>
@@ -1477,113 +1474,113 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="49"/>
     </row>
     <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
+      <c r="A8" s="64">
         <v>3</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="67">
         <v>868183034629902</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80" t="s">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="82" t="s">
+      <c r="H8" s="66"/>
+      <c r="I8" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="80" t="s">
+      <c r="J8" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="83" t="s">
+      <c r="K8" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80" t="s">
+      <c r="L8" s="66"/>
+      <c r="M8" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="84">
+      <c r="N8" s="70">
         <v>200000</v>
       </c>
-      <c r="O8" s="80"/>
-      <c r="P8" s="78" t="s">
+      <c r="O8" s="66"/>
+      <c r="P8" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="84" t="s">
+      <c r="Q8" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="80" t="s">
+      <c r="R8" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="78"/>
+      <c r="S8" s="64"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="49"/>
     </row>
     <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="64">
         <v>4</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="67">
         <v>868183034560313</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80" t="s">
+      <c r="F9" s="66"/>
+      <c r="G9" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="82" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="80" t="s">
+      <c r="K9" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80" t="s">
+      <c r="L9" s="66"/>
+      <c r="M9" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="N9" s="84">
+      <c r="N9" s="70">
         <v>200000</v>
       </c>
-      <c r="O9" s="80"/>
-      <c r="P9" s="78" t="s">
+      <c r="O9" s="66"/>
+      <c r="P9" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="Q9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="80" t="s">
+      <c r="R9" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="78"/>
+      <c r="S9" s="64"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1610,7 +1607,7 @@
         <v>67</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="59" t="s">
         <v>80</v>
       </c>
       <c r="J10" s="45" t="s">
@@ -1638,7 +1635,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1695,7 +1692,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1724,7 +1721,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1755,7 +1752,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1784,7 +1781,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1813,7 +1810,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1842,7 +1839,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3073,6 +3070,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3086,11 +3088,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3101,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3134,43 +3131,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3215,58 +3212,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3291,23 +3288,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3331,7 +3328,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="45" t="s">
@@ -3361,7 +3358,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3418,7 +3415,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3447,7 +3444,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3476,7 +3473,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3505,7 +3502,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3534,7 +3531,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3563,7 +3560,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3594,7 +3591,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3623,7 +3620,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3652,7 +3649,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3681,7 +3678,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4912,13 +4909,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4930,6 +4920,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4940,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4973,43 +4970,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5054,58 +5051,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -5130,23 +5127,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5170,7 +5167,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="59" t="s">
         <v>97</v>
       </c>
       <c r="J6" s="45" t="s">
@@ -5198,7 +5195,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5257,7 +5254,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5299,7 +5296,7 @@
       <c r="M8" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="63">
         <v>60000</v>
       </c>
       <c r="O8" s="45" t="s">
@@ -5316,7 +5313,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5345,7 +5342,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5374,7 +5371,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5403,7 +5400,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5432,7 +5429,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5463,7 +5460,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5492,7 +5489,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5521,7 +5518,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5550,7 +5547,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6781,6 +6778,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6792,13 +6796,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6809,8 +6806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6842,43 +6839,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6923,99 +6920,99 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="62" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7041,7 +7038,7 @@
       <c r="H6" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="59" t="s">
         <v>107</v>
       </c>
       <c r="J6" s="45" t="s">
@@ -7070,14 +7067,14 @@
         <v>115</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="65" t="s">
+      <c r="T6" s="60"/>
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="61"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -7092,7 +7089,7 @@
       <c r="D7" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>110</v>
       </c>
       <c r="F7" s="43"/>
@@ -7127,12 +7124,12 @@
         <v>23</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="66"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="61"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -7156,12 +7153,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="66"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="61"/>
+      <c r="W8" s="60"/>
     </row>
     <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -7185,12 +7182,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="66"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="61"/>
+      <c r="W9" s="60"/>
     </row>
     <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -7214,12 +7211,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="66"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="61"/>
+      <c r="W10" s="60"/>
     </row>
     <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -7243,12 +7240,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="66"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="61"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -7272,14 +7269,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="65" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="61"/>
+      <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -7303,12 +7300,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="66"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="61"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -7332,12 +7329,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="66"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="61"/>
+      <c r="W14" s="60"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -7362,11 +7359,11 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="61"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -7391,11 +7388,11 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="61"/>
+      <c r="W16" s="60"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -7420,9 +7417,9 @@
       <c r="R17" s="43"/>
       <c r="S17" s="4"/>
       <c r="T17" s="16"/>
-      <c r="U17" s="61"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="17"/>
-      <c r="W17" s="61"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -7474,7 +7471,7 @@
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
       <c r="T19" s="16"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="61" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="19" t="s">
@@ -7655,7 +7652,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
       <c r="T25" s="16"/>
-      <c r="U25" s="62" t="s">
+      <c r="U25" s="61" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="19" t="s">
@@ -8622,6 +8619,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8633,13 +8637,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8650,8 +8647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8683,43 +8680,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8764,58 +8761,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -8840,49 +8837,75 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="44">
+        <v>868183034677414</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="I6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>70</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>83</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8894,26 +8917,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868183034637111</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>70</v>
+      </c>
       <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="M7" s="45" t="s">
+        <v>74</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8923,26 +8972,50 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="4"/>
+      <c r="B8" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="67">
+        <v>868183034629902</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="70">
+        <v>200000</v>
+      </c>
+      <c r="O8" s="66"/>
+      <c r="P8" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="64"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8952,26 +9025,50 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="4"/>
+      <c r="B9" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="67">
+        <v>868183034560313</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="I9" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="70">
+        <v>200000</v>
+      </c>
+      <c r="O9" s="66"/>
+      <c r="P9" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="64"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8981,26 +9078,52 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="44">
+        <v>868183037844839</v>
+      </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="G10" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="M10" s="45" t="s">
+        <v>82</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="O10" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9010,26 +9133,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="44">
+        <v>868183034524954</v>
+      </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
+      <c r="G11" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="M11" s="45" t="s">
+        <v>74</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9039,26 +9190,54 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="44">
+        <v>865209034300344</v>
+      </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
+      <c r="G12" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="47"/>
+      <c r="O12" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>89</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9070,26 +9249,52 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="44">
+        <v>865209034299124</v>
+      </c>
       <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="G13" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="M13" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9099,26 +9304,52 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="44">
+        <v>867330023800611</v>
+      </c>
       <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
+      <c r="G14" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>95</v>
+      </c>
       <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
+      <c r="M14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="47"/>
+      <c r="O14" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9128,26 +9359,54 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="44">
+        <v>867330023825626</v>
+      </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="43"/>
+      <c r="G15" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9157,26 +9416,56 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="44">
+        <v>869668021847326</v>
+      </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="G16" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>100</v>
+      </c>
       <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="43"/>
+      <c r="M16" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="63">
+        <v>60000</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>104</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9186,23 +9475,53 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="44">
+        <v>862118021617912</v>
+      </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="43"/>
+      <c r="G17" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" s="47"/>
+      <c r="O17" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>115</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="16"/>
       <c r="U17" s="49"/>
@@ -9213,23 +9532,49 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>110</v>
+      </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="G18" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="L18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -9295,7 +9640,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -9327,7 +9672,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -9359,7 +9704,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -9508,7 +9853,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -9572,7 +9917,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -9636,7 +9981,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -9668,7 +10013,7 @@
       </c>
       <c r="V32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W32" s="16"/>
     </row>
@@ -9764,7 +10109,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -9796,7 +10141,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -9828,7 +10173,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -10181,7 +10526,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="11" t="s">
         <v>57</v>
@@ -10407,13 +10752,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10425,6 +10763,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="19" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -396,7 +396,13 @@
     <t>24/03/2021</t>
   </si>
   <si>
-    <t>Thay module GSM/GPS (chờ linh kiện)</t>
+    <t>Imei mới: 868183033791380</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033790994</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,12 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,28 +790,13 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,14 +829,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1192,43 +1174,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1273,58 +1255,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1349,23 +1331,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,7 +1399,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1474,113 +1456,125 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="49"/>
     </row>
     <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="42">
+        <v>44324</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="77">
         <v>868183034629902</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="68" t="s">
+      <c r="H8" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="70">
+      <c r="L8" s="45"/>
+      <c r="M8" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="63">
         <v>200000</v>
       </c>
-      <c r="O8" s="66"/>
-      <c r="P8" s="64" t="s">
+      <c r="O8" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="70" t="s">
+      <c r="Q8" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="66" t="s">
+      <c r="R8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="64"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="49"/>
     </row>
     <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="42">
+        <v>44324</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="77">
         <v>868183034560313</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="68" t="s">
+      <c r="H9" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" s="70">
+      <c r="L9" s="45"/>
+      <c r="M9" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="63">
         <v>200000</v>
       </c>
-      <c r="O9" s="66"/>
-      <c r="P9" s="64" t="s">
+      <c r="O9" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="70" t="s">
+      <c r="Q9" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="66" t="s">
+      <c r="R9" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="64"/>
+      <c r="S9" s="1"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1635,7 +1629,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1692,7 +1686,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1715,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1752,7 +1746,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1781,7 +1775,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1810,7 +1804,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1833,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3070,11 +3064,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3088,6 +3077,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3131,43 +3125,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3212,58 +3206,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3288,23 +3282,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3358,7 +3352,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3415,7 +3409,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3444,7 +3438,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3473,7 +3467,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3502,7 +3496,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3531,7 +3525,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3560,7 +3554,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3591,7 +3585,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3620,7 +3614,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3649,7 +3643,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3678,7 +3672,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4909,6 +4903,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4920,13 +4921,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4970,43 +4964,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5051,58 +5045,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -5127,23 +5121,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5195,7 +5189,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5254,7 +5248,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5313,7 +5307,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5342,7 +5336,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5371,7 +5365,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5400,7 +5394,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5429,7 +5423,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5460,7 +5454,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5489,7 +5483,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5518,7 +5512,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5547,7 +5541,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6778,13 +6772,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6796,6 +6783,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6839,43 +6833,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6920,58 +6914,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -6996,23 +6990,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7068,7 +7062,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7125,7 +7119,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7154,7 +7148,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7183,7 +7177,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7212,7 +7206,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7241,7 +7235,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7270,7 +7264,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7301,7 +7295,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7330,7 +7324,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7359,7 +7353,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7388,7 +7382,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8619,13 +8613,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8637,6 +8624,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8647,8 +8641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8680,43 +8674,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8761,58 +8755,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -8837,23 +8831,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8905,7 +8899,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8962,7 +8956,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8972,50 +8966,56 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="42">
+        <v>44324</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="77">
         <v>868183034629902</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="68" t="s">
+      <c r="H8" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="70">
+      <c r="L8" s="45"/>
+      <c r="M8" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="63">
         <v>200000</v>
       </c>
-      <c r="O8" s="66"/>
-      <c r="P8" s="64" t="s">
+      <c r="O8" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="70" t="s">
+      <c r="Q8" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="66" t="s">
+      <c r="R8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="64"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9025,50 +9025,56 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="42">
+        <v>44324</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="77">
         <v>868183034560313</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="68" t="s">
+      <c r="H9" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" s="70">
+      <c r="L9" s="45"/>
+      <c r="M9" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="63">
         <v>200000</v>
       </c>
-      <c r="O9" s="66"/>
-      <c r="P9" s="64" t="s">
+      <c r="O9" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="70" t="s">
+      <c r="Q9" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="66" t="s">
+      <c r="R9" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="64"/>
+      <c r="S9" s="1"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9123,7 +9129,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9180,7 +9186,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9237,7 +9243,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9294,7 +9300,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9349,7 +9355,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9406,7 +9412,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9465,7 +9471,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10752,6 +10758,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10763,13 +10776,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
